--- a/visualisations/cayley_signs.xlsx
+++ b/visualisations/cayley_signs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="into i0 +---" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,6 +20,7 @@
     <sheet name="by 0i -+++" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="product -+++ i0" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="product -+++ 0i" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="testing" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="35">
   <si>
     <t xml:space="preserve">αp</t>
   </si>
@@ -88,6 +89,54 @@
   </si>
   <si>
     <t xml:space="preserve">α03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-αp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-α23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-α31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-α12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-α0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-α023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-α031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-α012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-α123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-α1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-α2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-α3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-α0123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-α10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-α20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-α30</t>
   </si>
 </sst>
 </file>
@@ -248,7 +297,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -291,6 +340,38 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -373,14 +454,13 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="V13" activeCellId="0" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34"/>
   <cols>
     <col collapsed="false" hidden="false" max="17" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1311,14 +1391,13 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="S12" activeCellId="0" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34"/>
   <cols>
     <col collapsed="false" hidden="false" max="17" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2259,13 +2338,14 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Q17" activeCellId="0" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34"/>
   <cols>
     <col collapsed="false" hidden="false" max="17" min="1" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3196,13 +3276,14 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="V15" activeCellId="0" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34"/>
   <cols>
     <col collapsed="false" hidden="false" max="17" min="1" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4107,6 +4188,3386 @@
   </sheetData>
   <conditionalFormatting sqref="B2:Q17">
     <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF000000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FFFF950E"/>
+    <pageSetUpPr fitToPage="true"/>
+  </sheetPr>
+  <dimension ref="A1:AG33"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="34"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="33" min="1" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="34" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V2" s="11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W2" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X2" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y2" s="13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD2" s="11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE2" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF2" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG2" s="13" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J3" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y3" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB3" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG3" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V4" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC4" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD4" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q5" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD5" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE5" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R6" s="11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S6" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T6" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U6" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V6" s="11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W6" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X6" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y6" s="13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z6" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA6" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE6" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD7" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q8" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R8" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V8" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB8" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O9" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R9" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S9" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T9" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W9" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X9" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA9" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC9" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD9" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG9" s="18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q10" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y11" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG11" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M12" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P12" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q12" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V12" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD12" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q13" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V13" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE13" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N14" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O14" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P14" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q14" s="4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R14" s="11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S14" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T14" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U14" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V14" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W14" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X14" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y14" s="13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z14" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA14" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q15" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W15" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X15" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y15" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA15" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD15" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R16" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V16" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X16" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y16" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z16" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA16" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB16" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF16" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG16" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F17" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I17" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O17" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S17" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T17" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W17" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X17" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z17" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA17" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC17" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD17" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG17" s="18" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D18" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E18" s="13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F18" s="11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G18" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H18" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I18" s="13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N18" s="11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O18" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P18" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q18" s="13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I19" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q19" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V19" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W19" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z19" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD19" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N20" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W20" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X20" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y20" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA20" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF20" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG20" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N21" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V21" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X21" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y21" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z21" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG21" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D22" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E22" s="13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F22" s="11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G22" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H22" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I22" s="13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J22" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K22" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" s="11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O22" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W22" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="X22" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB22" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC22" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD22" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF22" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG22" s="13" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E23" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I23" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N23" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U23" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V23" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W23" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE23" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF23" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG23" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F24" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T24" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W24" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X24" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y24" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD24" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG24" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D25" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G25" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H25" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M25" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N25" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q25" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U25" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V25" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="W25" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="X25" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y25" s="18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z25" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB25" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE25" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF25" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="18" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V26" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W26" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X26" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y26" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB26" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC26" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD26" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE26" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF26" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG26" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E27" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I27" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q27" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V27" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W27" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z27" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA27" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD27" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E28" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F28" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N28" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W28" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X28" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y28" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA28" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB28" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF28" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG28" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F29" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X29" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y29" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z29" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC29" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD29" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF29" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG29" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D30" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E30" s="13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F30" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H30" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I30" s="13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J30" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="U30" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" s="11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W30" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="X30" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB30" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC30" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD30" s="11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE30" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF30" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG30" s="13" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E31" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I31" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N31" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U31" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V31" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG31" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F32" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I32" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q32" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T32" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W32" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD32" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG32" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D33" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G33" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H33" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J33" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M33" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N33" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q33" s="18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R33" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U33" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V33" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="W33" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="X33" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y33" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB33" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE33" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF33" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG33" s="18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="W2:AG33,B2:Q33">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF000000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:V33">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -4133,14 +7594,13 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="T11" activeCellId="0" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34"/>
   <cols>
     <col collapsed="false" hidden="false" max="17" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5081,14 +8541,13 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34"/>
   <cols>
     <col collapsed="false" hidden="false" max="17" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6029,14 +9488,13 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34"/>
   <cols>
     <col collapsed="false" hidden="false" max="17" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6977,13 +10435,14 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="U13" activeCellId="0" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34"/>
   <cols>
     <col collapsed="false" hidden="false" max="17" min="1" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7914,13 +11373,14 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="X15" activeCellId="0" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34"/>
   <cols>
     <col collapsed="false" hidden="false" max="17" min="1" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8851,14 +12311,13 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="V12" activeCellId="0" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34"/>
   <cols>
     <col collapsed="false" hidden="false" max="17" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9789,14 +13248,13 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34"/>
   <cols>
     <col collapsed="false" hidden="false" max="17" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10737,14 +14195,13 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34"/>
   <cols>
     <col collapsed="false" hidden="false" max="17" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/visualisations/cayley_signs.xlsx
+++ b/visualisations/cayley_signs.xlsx
@@ -21,6 +21,7 @@
     <sheet name="product -+++ i0" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="product -+++ 0i" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="testing" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="testing-full" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="35">
   <si>
     <t xml:space="preserve">αp</t>
   </si>
@@ -169,7 +170,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,11 +180,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF999999"/>
-        <bgColor rgb="FF808080"/>
+        <bgColor rgb="FFB2B2B2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FF999999"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -271,6 +278,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="double"/>
+      <right/>
+      <top style="double"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="double"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="double"/>
+      <top style="double"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="double"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="double"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="double"/>
+      <right/>
+      <top/>
+      <bottom style="double"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="double"/>
+      <top/>
+      <bottom style="double"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -297,7 +360,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -340,6 +403,42 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -399,7 +498,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -454,13 +553,14 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="V13" activeCellId="0" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34"/>
   <cols>
     <col collapsed="false" hidden="false" max="17" min="1" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1391,13 +1491,14 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="S12" activeCellId="0" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34"/>
   <cols>
     <col collapsed="false" hidden="false" max="17" min="1" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2338,14 +2439,14 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Q17" activeCellId="0" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34"/>
   <cols>
     <col collapsed="false" hidden="false" max="17" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3276,14 +3377,14 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="V15" activeCellId="0" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34"/>
   <cols>
     <col collapsed="false" hidden="false" max="17" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4212,16 +4313,18 @@
     <tabColor rgb="FFFF950E"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AN21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T1" activeCellId="0" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34"/>
   <cols>
-    <col collapsed="false" hidden="false" max="33" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="34" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="17" min="1" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="40" min="20" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4239,28 +4342,28 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>12</v>
@@ -4274,53 +4377,66 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>34</v>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN1" s="11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4375,53 +4491,68 @@
       <c r="Q2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="R2" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T2" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U2" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="V2" s="11" t="n">
-        <v>-1</v>
-      </c>
-      <c r="W2" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X2" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Y2" s="13" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Z2" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA2" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AB2" s="0" t="n">
-        <v>-1</v>
+      <c r="T2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="14" t="n">
+        <v>1</v>
       </c>
       <c r="AC2" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AD2" s="11" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AE2" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AF2" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AG2" s="13" t="n">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="AD2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4441,10 +4572,10 @@
         <v>-1</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H3" s="6" t="n">
         <v>1</v>
@@ -4453,10 +4584,10 @@
         <v>-1</v>
       </c>
       <c r="J3" s="5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K3" s="6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L3" s="6" t="n">
         <v>1</v>
@@ -4476,25 +4607,19 @@
       <c r="Q3" s="7" t="n">
         <v>-1</v>
       </c>
-      <c r="R3" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V3" s="14" t="n">
+      <c r="T3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="0" t="n">
         <v>-1</v>
       </c>
       <c r="W3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="X3" s="0" t="n">
+      <c r="X3" s="16" t="n">
         <v>-1</v>
       </c>
       <c r="Y3" s="15" t="n">
@@ -4504,24 +4629,45 @@
         <v>1</v>
       </c>
       <c r="AA3" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AB3" s="0" t="n">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="AB3" s="16" t="n">
+        <v>1</v>
       </c>
       <c r="AC3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD3" s="0" t="n">
         <v>-1</v>
       </c>
       <c r="AE3" s="0" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF3" s="0" t="n">
         <v>-1</v>
       </c>
       <c r="AG3" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AI3" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AJ3" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK3" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AL3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,25 +4688,25 @@
         <v>1</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K4" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="L4" s="6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M4" s="7" t="n">
         <v>1</v>
@@ -4577,53 +4723,68 @@
       <c r="Q4" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R4" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="V4" s="14" t="n">
+      <c r="T4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="U4" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="0" t="n">
         <v>-1</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X4" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X4" s="16" t="n">
         <v>1</v>
       </c>
       <c r="Y4" s="15" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="0" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB4" s="16" t="n">
         <v>-1</v>
       </c>
       <c r="AC4" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="AD4" s="14" t="n">
+      <c r="AD4" s="0" t="n">
         <v>-1</v>
       </c>
       <c r="AE4" s="0" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF4" s="0" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AG4" s="15" t="n">
         <v>-1</v>
+      </c>
+      <c r="AH4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4643,7 +4804,7 @@
         <v>-1</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>1</v>
@@ -4652,10 +4813,10 @@
         <v>-1</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J5" s="8" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K5" s="9" t="n">
         <v>1</v>
@@ -4664,7 +4825,7 @@
         <v>-1</v>
       </c>
       <c r="M5" s="10" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>1</v>
@@ -4678,85 +4839,100 @@
       <c r="Q5" s="7" t="n">
         <v>-1</v>
       </c>
-      <c r="R5" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V5" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="W5" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AB5" s="0" t="n">
+      <c r="T5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" s="18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X5" s="19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y5" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="19" t="n">
         <v>1</v>
       </c>
       <c r="AC5" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AD5" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="0" t="n">
         <v>-1</v>
       </c>
       <c r="AE5" s="0" t="n">
         <v>-1</v>
       </c>
       <c r="AF5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="15" t="n">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="AG5" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AH5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AL5" s="18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM5" s="18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN5" s="19" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>-1</v>
@@ -4768,7 +4944,7 @@
         <v>-1</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O6" s="3" t="n">
         <v>-1</v>
@@ -4779,64 +4955,79 @@
       <c r="Q6" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="R6" s="11" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S6" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T6" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U6" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="V6" s="11" t="n">
-        <v>-1</v>
-      </c>
-      <c r="W6" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X6" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Y6" s="13" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Z6" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA6" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="11" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AE6" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="13" t="n">
+      <c r="T6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>1</v>
@@ -4845,7 +5036,7 @@
         <v>-1</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-1</v>
@@ -4860,48 +5051,42 @@
         <v>1</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O7" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="14" t="n">
-        <v>-1</v>
+        <v>-1</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="U7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X7" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Y7" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X7" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="23" t="n">
         <v>1</v>
       </c>
       <c r="Z7" s="0" t="n">
@@ -4910,28 +5095,49 @@
       <c r="AA7" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="AB7" s="0" t="n">
+      <c r="AB7" s="24" t="n">
         <v>1</v>
       </c>
       <c r="AC7" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AD7" s="14" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AD7" s="0" t="n">
+        <v>-1</v>
       </c>
       <c r="AE7" s="0" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AG7" s="15" t="n">
-        <v>-1</v>
+      <c r="AG7" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AH7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AJ7" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM7" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN7" s="24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8" s="5" t="n">
         <v>1</v>
@@ -4940,13 +5146,13 @@
         <v>-1</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E8" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>-1</v>
@@ -4961,78 +5167,93 @@
         <v>1</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L8" s="6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M8" s="6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="Q8" s="7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R8" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U8" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="V8" s="14" t="n">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="U8" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="W8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="15" t="n">
-        <v>-1</v>
+        <v>-1</v>
+      </c>
+      <c r="X8" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="23" t="n">
+        <v>1</v>
       </c>
       <c r="Z8" s="0" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="AB8" s="0" t="n">
+      <c r="AB8" s="24" t="n">
         <v>-1</v>
       </c>
       <c r="AC8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AD8" s="14" t="n">
+      <c r="AD8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AE8" s="0" t="n">
         <v>-1</v>
       </c>
       <c r="AF8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="15" t="n">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="AG8" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AH8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN8" s="24" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B9" s="5" t="n">
         <v>1</v>
@@ -5044,10 +5265,10 @@
         <v>-1</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F9" s="8" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G9" s="9" t="n">
         <v>1</v>
@@ -5062,93 +5283,108 @@
         <v>1</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L9" s="6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O9" s="9" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P9" s="9" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q9" s="10" t="n">
         <v>-1</v>
       </c>
-      <c r="R9" s="16" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S9" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T9" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="U9" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="V9" s="16" t="n">
-        <v>-1</v>
-      </c>
-      <c r="W9" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X9" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA9" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AC9" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AD9" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AG9" s="18" t="n">
-        <v>1</v>
+      <c r="T9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W9" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X9" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA9" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC9" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE9" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG9" s="25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AH9" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AI9" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM9" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="27" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-1</v>
@@ -5163,16 +5399,16 @@
         <v>1</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O10" s="6" t="n">
         <v>-1</v>
@@ -5183,64 +5419,79 @@
       <c r="Q10" s="7" t="n">
         <v>-1</v>
       </c>
-      <c r="R10" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V10" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="W10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="15" t="n">
+      <c r="T10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" s="13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W10" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y10" s="23" t="n">
         <v>1</v>
       </c>
       <c r="Z10" s="0" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AB10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="15" t="n">
+      <c r="AB10" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD10" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE10" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF10" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG10" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AI10" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AJ10" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK10" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AL10" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D11" s="6" t="n">
         <v>1</v>
@@ -5252,16 +5503,16 @@
         <v>1</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K11" s="6" t="n">
         <v>-1</v>
@@ -5273,55 +5524,49 @@
         <v>-1</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O11" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q11" s="7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R11" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S11" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T11" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="U11" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="0" t="n">
         <v>-1</v>
       </c>
       <c r="W11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="X11" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Y11" s="15" t="n">
+      <c r="X11" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="23" t="n">
         <v>1</v>
       </c>
       <c r="Z11" s="0" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AC11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="14" t="n">
-        <v>-1</v>
+        <v>-1</v>
+      </c>
+      <c r="AB11" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD11" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="AE11" s="0" t="n">
         <v>1</v>
@@ -5329,13 +5574,34 @@
       <c r="AF11" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="AG11" s="15" t="n">
+      <c r="AG11" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN11" s="24" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B12" s="5" t="n">
         <v>1</v>
@@ -5344,7 +5610,7 @@
         <v>-1</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E12" s="7" t="n">
         <v>1</v>
@@ -5353,16 +5619,16 @@
         <v>1</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K12" s="6" t="n">
         <v>-1</v>
@@ -5374,54 +5640,48 @@
         <v>1</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P12" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="Q12" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T12" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U12" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="V12" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="U12" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" s="0" t="n">
         <v>-1</v>
       </c>
       <c r="W12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="X12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="15" t="n">
-        <v>-1</v>
+      <c r="X12" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="23" t="n">
+        <v>1</v>
       </c>
       <c r="Z12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AA12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AD12" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB12" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC12" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD12" s="0" t="n">
         <v>-1</v>
       </c>
       <c r="AE12" s="0" t="n">
@@ -5430,13 +5690,34 @@
       <c r="AF12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AG12" s="15" t="n">
+      <c r="AG12" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AI12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="24" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B13" s="8" t="n">
         <v>1</v>
@@ -5448,22 +5729,22 @@
         <v>-1</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>1</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J13" s="8" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K13" s="9" t="n">
         <v>1</v>
@@ -5475,55 +5756,49 @@
         <v>-1</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="7" t="n">
         <v>-1</v>
       </c>
-      <c r="R13" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S13" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U13" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="V13" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="W13" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="15" t="n">
+      <c r="T13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="U13" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" s="18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W13" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="X13" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="23" t="n">
         <v>1</v>
       </c>
       <c r="Z13" s="0" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA13" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AB13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="14" t="n">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="AB13" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC13" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD13" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="AE13" s="0" t="n">
         <v>-1</v>
@@ -5531,7 +5806,28 @@
       <c r="AF13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AG13" s="15" t="n">
+      <c r="AG13" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AJ13" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5552,28 +5848,28 @@
         <v>1</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G14" s="3" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N14" s="2" t="n">
         <v>-1</v>
@@ -5587,52 +5883,67 @@
       <c r="Q14" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="R14" s="11" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S14" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T14" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U14" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="V14" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="W14" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X14" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Y14" s="13" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Z14" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA14" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD14" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF14" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG14" s="13" t="n">
+      <c r="T14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X14" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA14" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB14" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC14" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD14" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE14" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF14" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG14" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AH14" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5659,10 +5970,10 @@
         <v>1</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I15" s="7" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J15" s="6" t="n">
         <v>1</v>
@@ -5671,10 +5982,10 @@
         <v>1</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N15" s="5" t="n">
         <v>-1</v>
@@ -5688,44 +5999,38 @@
       <c r="Q15" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R15" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T15" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V15" s="14" t="n">
-        <v>-1</v>
+      <c r="T15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="U15" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="W15" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X15" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Y15" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="X15" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y15" s="23" t="n">
         <v>1</v>
       </c>
       <c r="Z15" s="0" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="AB15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AD15" s="14" t="n">
-        <v>1</v>
+      <c r="AB15" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="0" t="n">
+        <v>-1</v>
       </c>
       <c r="AE15" s="0" t="n">
         <v>-1</v>
@@ -5733,7 +6038,28 @@
       <c r="AF15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AG15" s="15" t="n">
+      <c r="AG15" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK15" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AL15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="24" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -5757,25 +6083,25 @@
         <v>1</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H16" s="6" t="n">
         <v>1</v>
       </c>
       <c r="I16" s="7" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J16" s="6" t="n">
         <v>1</v>
       </c>
       <c r="K16" s="6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L16" s="6" t="n">
         <v>1</v>
       </c>
       <c r="M16" s="6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N16" s="5" t="n">
         <v>-1</v>
@@ -5789,43 +6115,37 @@
       <c r="Q16" s="7" t="n">
         <v>-1</v>
       </c>
-      <c r="R16" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U16" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="V16" s="14" t="n">
-        <v>-1</v>
+      <c r="T16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="U16" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="W16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="X16" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Y16" s="15" t="n">
-        <v>-1</v>
+      <c r="X16" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y16" s="23" t="n">
+        <v>1</v>
       </c>
       <c r="Z16" s="0" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA16" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AB16" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AC16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD16" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC16" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AE16" s="0" t="n">
@@ -5834,7 +6154,28 @@
       <c r="AF16" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="AG16" s="15" t="n">
+      <c r="AG16" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AI16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AL16" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5858,10 +6199,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="9" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H17" s="9" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I17" s="10" t="n">
         <v>1</v>
@@ -5870,10 +6211,10 @@
         <v>1</v>
       </c>
       <c r="K17" s="9" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L17" s="9" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M17" s="9" t="n">
         <v>1</v>
@@ -5890,129 +6231,87 @@
       <c r="Q17" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="R17" s="16" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S17" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T17" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="U17" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="V17" s="16" t="n">
-        <v>-1</v>
-      </c>
-      <c r="W17" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X17" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="18" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Z17" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA17" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AC17" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AD17" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF17" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AG17" s="18" t="n">
-        <v>-1</v>
+      <c r="T17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="U17" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X17" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y17" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA17" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE17" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG17" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AJ17" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AL17" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN17" s="27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="11" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C18" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D18" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E18" s="13" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F18" s="11" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G18" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H18" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I18" s="13" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L18" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M18" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N18" s="11" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O18" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P18" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q18" s="13" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V18" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="W18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="15" t="n">
+      <c r="T18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="U18" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="W18" s="13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X18" s="14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y18" s="23" t="n">
         <v>1</v>
       </c>
       <c r="Z18" s="0" t="n">
@@ -6021,1542 +6320,243 @@
       <c r="AA18" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AB18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD18" s="14" t="n">
-        <v>1</v>
+      <c r="AB18" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="0" t="n">
+        <v>-1</v>
       </c>
       <c r="AE18" s="0" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG18" s="15" t="n">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="AG18" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AH18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AL18" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM18" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN18" s="24" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E19" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I19" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L19" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q19" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S19" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U19" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="V19" s="14" t="n">
-        <v>1</v>
+      <c r="T19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="U19" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <v>-1</v>
       </c>
       <c r="W19" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="X19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="15" t="n">
-        <v>-1</v>
+      <c r="X19" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y19" s="23" t="n">
+        <v>1</v>
       </c>
       <c r="Z19" s="0" t="n">
         <v>-1</v>
       </c>
       <c r="AA19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AD19" s="14" t="n">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="AB19" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD19" s="0" t="n">
+        <v>-1</v>
       </c>
       <c r="AE19" s="0" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG19" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG19" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AH19" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AI19" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AJ19" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AL19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="24" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F20" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M20" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N20" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S20" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T20" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V20" s="14" t="n">
-        <v>1</v>
+      <c r="T20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="U20" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <v>-1</v>
       </c>
       <c r="W20" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="X20" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Y20" s="15" t="n">
+      <c r="X20" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y20" s="23" t="n">
         <v>1</v>
       </c>
       <c r="Z20" s="0" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA20" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="AB20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD20" s="14" t="n">
-        <v>1</v>
+      <c r="AB20" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC20" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD20" s="0" t="n">
+        <v>-1</v>
       </c>
       <c r="AE20" s="0" t="n">
         <v>-1</v>
       </c>
       <c r="AF20" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AG20" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AH20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AJ20" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK20" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AL20" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="24" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N21" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O21" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T21" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U21" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="V21" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="W21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X21" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Y21" s="15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Z21" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AC21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD21" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF21" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AG21" s="15" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="11" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C22" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D22" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E22" s="13" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F22" s="11" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G22" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H22" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I22" s="13" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J22" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K22" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" s="11" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O22" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R22" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="S22" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="T22" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="U22" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="V22" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="W22" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="X22" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AB22" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AC22" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AD22" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AF22" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AG22" s="13" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E23" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I23" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K23" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N23" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S23" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U23" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="V23" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="W23" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Z23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AC23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD23" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AE23" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AF23" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AG23" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F24" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J24" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K24" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L24" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S24" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T24" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V24" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="W24" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X24" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Y24" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC24" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AD24" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AE24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF24" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AG24" s="15" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="16" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C25" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D25" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="16" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G25" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H25" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K25" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M25" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N25" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q25" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="S25" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="T25" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U25" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="V25" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="W25" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="X25" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Y25" s="18" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Z25" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AB25" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD25" s="16" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AE25" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AF25" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG25" s="18" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S26" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T26" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U26" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="V26" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="W26" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X26" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Y26" s="15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Z26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AB26" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AC26" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AD26" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AE26" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AF26" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AG26" s="15" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E27" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I27" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q27" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U27" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="V27" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="W27" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Z27" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA27" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AB27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AD27" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE27" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AF27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG27" s="15" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E28" s="15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F28" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N28" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S28" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V28" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="W28" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X28" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Y28" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA28" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AB28" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AC28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD28" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE28" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AF28" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AG28" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F29" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G29" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O29" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T29" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V29" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="W29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X29" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Y29" s="15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Z29" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB29" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AC29" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AD29" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF29" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AG29" s="15" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="11" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C30" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D30" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E30" s="13" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F30" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H30" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I30" s="13" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J30" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K30" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O30" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P30" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R30" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="S30" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="T30" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="U30" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="V30" s="11" t="n">
-        <v>-1</v>
-      </c>
-      <c r="W30" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="X30" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y30" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z30" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA30" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AB30" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AC30" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AD30" s="11" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AE30" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AF30" s="12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AG30" s="13" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E31" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I31" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K31" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N31" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S31" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U31" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="V31" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="W31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y31" s="15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Z31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AC31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD31" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AE31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF31" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AG31" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F32" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H32" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I32" s="15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J32" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K32" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L32" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O32" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P32" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q32" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S32" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T32" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V32" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="W32" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y32" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC32" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AD32" s="14" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AE32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG32" s="15" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="16" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C33" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D33" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="16" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G33" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H33" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" s="18" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J33" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K33" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L33" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M33" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N33" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="O33" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P33" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q33" s="18" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R33" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="S33" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="T33" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U33" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="V33" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="W33" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="X33" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Y33" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z33" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA33" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AB33" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC33" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD33" s="16" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AE33" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AF33" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG33" s="18" t="n">
+      <c r="T21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="U21" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" s="18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W21" s="18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X21" s="19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y21" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA21" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC21" s="25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD21" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF21" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG21" s="25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AH21" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AI21" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ21" s="27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK21" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AL21" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM21" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN21" s="27" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="W2:AG33,B2:Q33">
+  <conditionalFormatting sqref="B2:Q17">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -7566,7 +6566,3417 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AD6:AN21">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF000000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U2:AN5">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF4B1F6F"/>
+        <color rgb="FFFF950E"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U6:X21">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF4B1F6F"/>
+        <color rgb="FFFF950E"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y6:AC21">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF000000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FFFF950E"/>
+    <pageSetUpPr fitToPage="true"/>
+  </sheetPr>
+  <dimension ref="A1:AG33"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AI16" activeCellId="0" sqref="AI16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="34"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="33" min="1" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="34" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V2" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W2" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X2" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y2" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD2" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE2" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF2" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG2" s="22" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J3" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y3" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB3" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG3" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V4" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC4" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD4" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="24" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q5" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD5" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE5" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R6" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S6" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T6" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U6" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V6" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W6" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X6" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y6" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z6" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA6" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE6" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y7" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD7" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="24" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q8" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R8" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V8" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB8" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O9" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P9" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R9" s="25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S9" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T9" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" s="25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W9" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X9" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA9" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC9" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD9" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG9" s="27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q10" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y11" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG11" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M12" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P12" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q12" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V12" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD12" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="24" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q13" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V13" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE13" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N14" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O14" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P14" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q14" s="4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R14" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S14" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T14" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U14" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V14" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="W14" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X14" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y14" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z14" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA14" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q15" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W15" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X15" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y15" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA15" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD15" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="24" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R16" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V16" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X16" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y16" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z16" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA16" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB16" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF16" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG16" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F17" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I17" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O17" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S17" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T17" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" s="25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W17" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X17" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z17" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA17" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC17" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD17" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG17" s="27" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D18" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E18" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F18" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G18" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H18" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I18" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N18" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O18" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P18" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q18" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="W18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I19" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q19" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V19" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="W19" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z19" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD19" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="24" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N20" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="W20" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X20" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y20" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA20" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF20" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG20" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N21" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V21" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="W21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X21" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y21" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z21" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG21" s="24" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D22" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E22" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F22" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G22" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H22" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I22" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J22" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K22" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O22" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="W22" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="X22" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB22" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC22" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD22" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF22" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG22" s="22" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E23" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I23" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N23" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U23" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V23" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="W23" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE23" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF23" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG23" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F24" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T24" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="W24" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X24" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y24" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD24" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG24" s="24" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D25" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G25" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H25" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M25" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N25" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q25" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U25" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V25" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="W25" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="X25" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y25" s="27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z25" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB25" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE25" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF25" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="27" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V26" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W26" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X26" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y26" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB26" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC26" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD26" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE26" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF26" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG26" s="24" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E27" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I27" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q27" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V27" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="W27" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z27" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA27" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD27" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="24" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E28" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F28" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N28" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="W28" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X28" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y28" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA28" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB28" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF28" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG28" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F29" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="W29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X29" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y29" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z29" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC29" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD29" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF29" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG29" s="24" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D30" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E30" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F30" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H30" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I30" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J30" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="U30" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W30" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="X30" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB30" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC30" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD30" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE30" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF30" s="21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG30" s="22" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E31" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I31" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N31" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U31" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V31" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="W31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="X31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG31" s="24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F32" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I32" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q32" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T32" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="W32" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD32" s="23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG32" s="24" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D33" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G33" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H33" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J33" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M33" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N33" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q33" s="27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R33" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U33" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V33" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="W33" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="X33" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y33" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB33" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE33" s="26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF33" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG33" s="27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <conditionalFormatting sqref="R2:V33">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF000000"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:AG33">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -7594,13 +10004,14 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="T11" activeCellId="0" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34"/>
   <cols>
     <col collapsed="false" hidden="false" max="17" min="1" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8541,13 +10952,14 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34"/>
   <cols>
     <col collapsed="false" hidden="false" max="17" min="1" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9488,13 +11900,14 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34"/>
   <cols>
     <col collapsed="false" hidden="false" max="17" min="1" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10435,14 +12848,14 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="U13" activeCellId="0" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34"/>
   <cols>
     <col collapsed="false" hidden="false" max="17" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11373,14 +13786,14 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="X15" activeCellId="0" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34"/>
   <cols>
     <col collapsed="false" hidden="false" max="17" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12311,13 +14724,14 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="V12" activeCellId="0" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34"/>
   <cols>
     <col collapsed="false" hidden="false" max="17" min="1" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13248,13 +15662,14 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34"/>
   <cols>
     <col collapsed="false" hidden="false" max="17" min="1" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14195,13 +16610,14 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34"/>
   <cols>
     <col collapsed="false" hidden="false" max="17" min="1" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
